--- a/biology/Botanique/Emblème_végétal/Emblème_végétal.xlsx
+++ b/biology/Botanique/Emblème_végétal/Emblème_végétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un emblème végétal est un végétal choisi par une personne ou une communauté comme son emblème en raison de sa représentativité, soit parce qu'il est caractéristique du territoire considéré (comme l'érable au Canada ou le bouleau jaune au Québec depuis 1993), soit pour ses vertus ou propriétés supposées ou réelles, soit encore pour sa symbolique. Il s'agit généralement d'un arbre ou d'une fleur, parfois d'un fruit.
-Dans l'Antiquité romaine, les divinités étaient fréquemment identifiées par un tel emblème, seul ou en combinaison avec d'autres objets symboliques[1]. 
+Dans l'Antiquité romaine, les divinités étaient fréquemment identifiées par un tel emblème, seul ou en combinaison avec d'autres objets symboliques. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Madagascar - Arbre du voyageur ou Ravinala (« Ravenale », Ravenala madagascariensis)
 Afrique du Sud – Protea cynaroides
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,13 +566,15 @@
           <t>Amériques du Nord et centrale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bahamas - Tecoma stans
 Barbade - Caesalpinia pulcherrima
 Bélize - Prosthechea cochleata
 Bermudes - Sisyrinchium (sans statut officiel)
-Canada - Feuille d'érable à sucre[2].
+Canada - Feuille d'érable à sucre.
 Alberta - Rose arctique
 Colombie-Britannique - Cornouiller du Pacifique
 Île-du-Prince-Édouard - Sabot de la Vierge
@@ -567,7 +583,7 @@
 Nouvelle-Écosse - Fleur de mai
 Nunavut - Saxifrage à feuilles opposées
 Ontario - Trille blanc
-Québec - Bouleau jaune et Iris versicolore[3]
+Québec - Bouleau jaune et Iris versicolore
 Saskatchewan - Lys des prairies
 Terre-Neuve-et-Labrador - Sarracénie pourpre
 Territoires du Nord-Ouest - Dryade à huit pétales
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +620,9 @@
           <t>Amérique du Sud</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Argentine - Erythrina crista-galli 
 Bolivie - Cantua buxifolia et Heliconia rostrata
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,17 +661,19 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bangladesh - Nymphaea pubescens, une espèce de nymphée
 Bhoutan - Pavot bleu de l'Himalaya, Cyprès du Bhoutan
-Cambodge - Depuis un décret de 2005 signé par sa majesté le roi Norodom Sihamoni, l'emblème national du Cambodge est la fleur romduol (ផ្ការំដួល), Sphaerocoryne affinis[4].
+Cambodge - Depuis un décret de 2005 signé par sa majesté le roi Norodom Sihamoni, l'emblème national du Cambodge est la fleur romduol (ផ្ការំដួល), Sphaerocoryne affinis.
 Corée du Nord - Magnolia, Kimilsungia et Kimjongilia
 Corée du Sud – Hibiscus syriacus
 Chine - Pivoine de Chine.
 Hong Kong - Bauhinia blakeana
 Macao - Lotus sacré.
-Inde - Le lotus sacré a été abandonné sur l'emblème de l'Inde[5] ; il reste la fleur nationale[6].
+Inde - Le lotus sacré a été abandonné sur l'emblème de l'Inde ; il reste la fleur nationale.
 Uttarakhand- Rhododendron
 Indonésie - Fleur de Frangipanier blanches (Plumeria rubra)
 Iran – Tulipe comme les Pays-Bas, la Hongrie et la Turquie
@@ -682,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,7 +720,9 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Allemagne – Bleuet des champs
 Andorra – Narcisse des poètes
@@ -709,7 +731,7 @@
 Belgique
 Bruxelles-Capitale – Iris des marais
 Flandre – Coquelicot
-Wallonie – Gaillarde[7]
+Wallonie – Gaillarde
 Belarus – Centaurea (sans statut officiel)
 Bulgarie – Rose
 Chypre – Cyclamen cyprium
@@ -720,10 +742,10 @@
 Estonie – Bleuet des champs
 Finlande – Muguet de mai, rose blanche
 France
-Royaume de France – La fleur de lys (d'or sur champ d'azur) a été l'emblème héraldique de la France pendant sept siècles[8]. Plus précisément, il s'agissait de l'emblème royal[9].
-France – Le bleuet, la marguerite et le coquelicot sont l'emblème floral de la France (le bleuet est le symbole des anciens combattants français de la Première Guerre mondiale tandis que le coquelicot symbolise les combattants du Commonwealth[10]).
+Royaume de France – La fleur de lys (d'or sur champ d'azur) a été l'emblème héraldique de la France pendant sept siècles. Plus précisément, il s'agissait de l'emblème royal.
+France – Le bleuet, la marguerite et le coquelicot sont l'emblème floral de la France (le bleuet est le symbole des anciens combattants français de la Première Guerre mondiale tandis que le coquelicot symbolise les combattants du Commonwealth).
 Bretagne – Ajonc
-Nouvelle-Calédonie – Le pin colonnaire[11] est associé au nautile et à une case kanak sur son drapeau.
+Nouvelle-Calédonie – Le pin colonnaire est associé au nautile et à une case kanak sur son drapeau.
 Frise - Nénuphar
 Gibraltar – Iberis
 Grèce – branche de laurier, violette
@@ -757,7 +779,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embl%C3%A8me_v%C3%A9g%C3%A9tal</t>
+          <t>Emblème_végétal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -775,7 +797,9 @@
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Australie - Mimosa doré (Acacia pycnantha).
 Territoire de la capitale australienne - Wahlenbergia gloriosa
